--- a/Excel-Practice/06-Data-Management/Employee Data.xlsx
+++ b/Excel-Practice/06-Data-Management/Employee Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\06-Data-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17104D7A-F88D-41CF-A348-6A42A8610938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256259B-F2AC-46D6-9E26-F0EE2DAC9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,16 +509,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,7 +526,50 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E082"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E082"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF98B71"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -569,25 +612,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -698,25 +722,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E28E8A2-F983-412F-A778-92AB2289AA13}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E28E8A2-F983-412F-A778-92AB2289AA13}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0" tableBorderDxfId="13">
   <autoFilter ref="A1:J33" xr:uid="{7E28E8A2-F983-412F-A778-92AB2289AA13}">
     <filterColumn colId="5">
-      <dynamicFilter type="aboveAverage" val="40491.875"/>
+      <customFilters>
+        <customFilter operator="greaterThan" val="75000"/>
+        <customFilter operator="lessThan" val="100000"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3E5A8150-644F-457F-991C-4DBF56D9266E}" name="ID No" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8CC1896D-04BB-4AF5-BFD1-7DA046D2F2CF}" name="First Name" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{C5A18266-D4F9-4B76-858B-D10CE2D92091}" name="Last Name" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{5E0546DE-3096-4967-8D3C-9BFA1B94DB2F}" name="Gender" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{CDD9E9B5-44FB-4A3E-A910-355E7E4C6514}" name="Dept" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{63C84B92-1FBE-4374-A763-396072EC9579}" name="Salary" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{3934348D-11E0-4DF4-A787-F7ABE250F8BA}" name="Location" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{32091541-2F6A-46C6-9595-BE871FEFA375}" name="Date Hired" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B0657F88-B786-4E8A-8978-12DAE29DC3D8}" name="Years of Service" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{3E5A8150-644F-457F-991C-4DBF56D9266E}" name="ID No" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8CC1896D-04BB-4AF5-BFD1-7DA046D2F2CF}" name="First Name" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{C5A18266-D4F9-4B76-858B-D10CE2D92091}" name="Last Name" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{5E0546DE-3096-4967-8D3C-9BFA1B94DB2F}" name="Gender" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{CDD9E9B5-44FB-4A3E-A910-355E7E4C6514}" name="Dept" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{63C84B92-1FBE-4374-A763-396072EC9579}" name="Salary" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{3934348D-11E0-4DF4-A787-F7ABE250F8BA}" name="Location" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{32091541-2F6A-46C6-9595-BE871FEFA375}" name="Date Hired" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B0657F88-B786-4E8A-8978-12DAE29DC3D8}" name="Years of Service" dataDxfId="5" dataCellStyle="Normal 2">
       <calculatedColumnFormula>YEAR(TODAY())-YEAR(H2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0F2E9990-ADA1-4F38-97E1-4968B6548D64}" name="Profit Sharing" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{0F2E9990-ADA1-4F38-97E1-4968B6548D64}" name="Profit Sharing" dataDxfId="4" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -988,7 +1015,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,67 +1063,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10">
-        <v>29600</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="4">
+        <v>50200</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="11">
-        <v>36886</v>
+        <v>35985</v>
       </c>
       <c r="I2" s="12">
         <f ca="1">YEAR(TODAY())-YEAR(H2)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10">
-        <v>24100</v>
+        <v>29600</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H3" s="11">
-        <v>36300</v>
+        <v>36886</v>
       </c>
       <c r="I3" s="12">
         <f ca="1">YEAR(TODAY())-YEAR(H3)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>42</v>
@@ -1104,32 +1131,32 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4">
-        <v>50200</v>
+        <v>26</v>
+      </c>
+      <c r="F4" s="10">
+        <v>24100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H4" s="11">
-        <v>35985</v>
+        <v>36300</v>
       </c>
       <c r="I4" s="12">
         <f ca="1">YEAR(TODAY())-YEAR(H4)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>42</v>
@@ -1168,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>102</v>
       </c>
@@ -1201,7 +1228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -1300,7 +1327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
@@ -1333,7 +1360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
@@ -1432,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>78</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -1498,7 +1525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>116</v>
       </c>
@@ -1531,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>72</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
@@ -1663,7 +1690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>61</v>
       </c>
@@ -1696,7 +1723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
@@ -1861,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
@@ -1993,7 +2020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -2026,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
